--- a/FCM.xlsx
+++ b/FCM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fileBimo\backupProgram\suiapps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fileBimo\backupProgram\ptsui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23BB68-1895-4F4D-95C2-582EB6C5B5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7B89F-21F3-4C46-A8E7-F38B46CE2310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +404,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,12 +756,12 @@
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -803,11 +806,11 @@
         <f>A2</f>
         <v>Mitoma</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="12" t="str">
         <f>A3</f>
         <v>Dembele</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6" t="str">
         <f>A4</f>
         <v>Raphinha</v>
@@ -828,13 +831,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="11" t="str">
+      <c r="E5" s="12" t="str">
         <f>A5</f>
         <v>Musiala</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <f>AVERAGE(B5:B7)</f>
         <v>117.66666666666667</v>
       </c>
@@ -859,7 +862,7 @@
         <v>Zidane</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -881,7 +884,7 @@
         <f>A11</f>
         <v>Thuram</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <f>AVERAGE(B8:B12)</f>
         <v>117.4</v>
       </c>
@@ -906,7 +909,7 @@
         <v>Marquez</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -919,13 +922,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="12" t="str">
         <f>A12</f>
         <v>Courtois</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -1574,10 +1577,10 @@
       <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="1">
         <f>SUM(K4:K5)</f>
         <v>2500</v>
@@ -1603,10 +1606,10 @@
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="1">
         <f>$B$1-K6</f>
         <v>1</v>
@@ -2346,9 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441AD954-2C56-4E26-A382-C27DBABE32ED}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2363,7 +2364,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="4">
-        <v>1520</v>
+        <v>2176</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>65</v>
@@ -2412,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="b">
-        <f>C4&lt;=$B$1</f>
+        <f t="shared" ref="E4:E40" si="0">C4&lt;=$B$1</f>
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2442,20 +2443,20 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="b">
-        <f>C5&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="10">
         <v>118</v>
       </c>
-      <c r="K5" s="9">
-        <v>800</v>
+      <c r="K5" s="10">
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -2472,19 +2473,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="b">
-        <f>C6&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="4">
         <f>SUM(K4:K5)</f>
-        <v>2300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -2501,19 +2502,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="b">
-        <f>C7&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="4">
         <f>$B$1-K6</f>
-        <v>-780</v>
+        <v>-824</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -2530,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="b">
-        <f>C8&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -2553,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="b">
-        <f>C9&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -2574,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="b">
-        <f>C10&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -2595,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="b">
-        <f>C11&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2616,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="b">
-        <f>C12&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -2637,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="b">
-        <f>C13&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2658,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="b">
-        <f>C14&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -2681,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="b">
-        <f>C15&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -2704,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="b">
-        <f>C16&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -2725,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="b">
-        <f>C17&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2746,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="b">
-        <f>C18&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -2767,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="b">
-        <f>C19&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2776,7 +2777,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E20" s="4" t="b">
-        <f>C20&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2785,7 +2786,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E21" s="4" t="b">
-        <f>C21&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -2796,7 +2797,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E22" s="4" t="b">
-        <f>C22&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -2807,7 +2808,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E23" s="4" t="b">
-        <f>C23&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -2816,7 +2817,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E24" s="4" t="b">
-        <f>C24&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -2825,7 +2826,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E25" s="4" t="b">
-        <f>C25&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -2834,7 +2835,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E26" s="4" t="b">
-        <f>C26&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -2843,7 +2844,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E27" s="4" t="b">
-        <f>C27&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -2852,7 +2853,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E28" s="4" t="b">
-        <f>C28&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -2863,7 +2864,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E29" s="4" t="b">
-        <f>C29&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -2874,7 +2875,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E30" s="4" t="b">
-        <f>C30&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -2883,7 +2884,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E31" s="4" t="b">
-        <f>C31&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -2892,7 +2893,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="E32" s="4" t="b">
-        <f>C32&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -2901,7 +2902,7 @@
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E33" s="4" t="b">
-        <f>C33&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -2910,7 +2911,7 @@
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E34" s="4" t="b">
-        <f>C34&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -2919,7 +2920,7 @@
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E35" s="4" t="b">
-        <f>C35&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -2930,7 +2931,7 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E36" s="4" t="b">
-        <f>C36&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -2941,7 +2942,7 @@
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E37" s="4" t="b">
-        <f>C37&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -2950,7 +2951,7 @@
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E38" s="4" t="b">
-        <f>C38&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -2959,7 +2960,7 @@
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E39" s="4" t="b">
-        <f>C39&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -2968,7 +2969,7 @@
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E40" s="4" t="b">
-        <f>C40&lt;=$B$1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">

--- a/FCM.xlsx
+++ b/FCM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fileBimo\backupProgram\ptsui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7B89F-21F3-4C46-A8E7-F38B46CE2310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C67F4F0-FB7D-4E42-A78F-10372FD9BA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Lineup" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
   <si>
     <t>Price</t>
   </si>
@@ -143,12 +143,6 @@
     <t>MM</t>
   </si>
   <si>
-    <t>2-1-3-1</t>
-  </si>
-  <si>
-    <t>3-2-2-1</t>
-  </si>
-  <si>
     <t>Savic (GK)</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>1-1-1-1</t>
   </si>
   <si>
-    <t>4-3-3 Attack</t>
-  </si>
-  <si>
     <t>Cryuff</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>3-3-3-1</t>
   </si>
   <si>
-    <t>Marquez</t>
-  </si>
-  <si>
     <t>Davies</t>
   </si>
   <si>
@@ -314,12 +302,6 @@
     <t>Cordoba</t>
   </si>
   <si>
-    <t>2-1-1-2</t>
-  </si>
-  <si>
-    <t>Mitoma</t>
-  </si>
-  <si>
     <t>Gullit</t>
   </si>
   <si>
@@ -342,6 +324,48 @@
   </si>
   <si>
     <t>Rodrygo</t>
+  </si>
+  <si>
+    <t>Dunga</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>Beckham</t>
+  </si>
+  <si>
+    <t>Cafu</t>
+  </si>
+  <si>
+    <t>Makalele</t>
+  </si>
+  <si>
+    <t>Lineker</t>
+  </si>
+  <si>
+    <t>Eder Militao</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>4-1-2-1-2 Narrow</t>
+  </si>
+  <si>
+    <t>2-1-2-2</t>
+  </si>
+  <si>
+    <t>3-1-3-1</t>
+  </si>
+  <si>
+    <t>1-1-3-1</t>
+  </si>
+  <si>
+    <t>3-2-3-1</t>
+  </si>
+  <si>
+    <t>Laundrup</t>
   </si>
 </sst>
 </file>
@@ -409,19 +433,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE8956-4EAA-4721-929B-3043E18557CC}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -756,21 +780,21 @@
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5">
-        <v>117</v>
-      </c>
-      <c r="C2" s="1">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -778,7 +802,7 @@
       </c>
       <c r="F2" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>117.45454545454545</v>
+        <v>117.54545454545455</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -793,8 +817,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
-        <v>75</v>
+      <c r="A4" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>117</v>
@@ -802,49 +826,46 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="str">
         <f>A2</f>
-        <v>Mitoma</v>
-      </c>
-      <c r="E4" s="12" t="str">
+        <v>Dembele</v>
+      </c>
+      <c r="F4" s="9" t="str">
         <f>A3</f>
-        <v>Dembele</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="6" t="str">
-        <f>A4</f>
-        <v>Raphinha</v>
-      </c>
+        <v>Cryuff</v>
+      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="3">
         <f>AVERAGE(B2:B4)</f>
-        <v>117.33333333333333</v>
+        <v>117.66666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B5" s="5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="12" t="str">
-        <f>A5</f>
+        <f>A4</f>
         <v>Musiala</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="13">
+      <c r="G5" s="9"/>
+      <c r="H5" s="11">
         <f>AVERAGE(B5:B7)</f>
-        <v>117.66666666666667</v>
+        <v>117.33333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>93</v>
+      <c r="A6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="5">
         <v>118</v>
@@ -852,68 +873,71 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="str">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="str">
+        <f>A5</f>
+        <v>Gullit</v>
+      </c>
+      <c r="F6" s="9" t="str">
         <f>A6</f>
-        <v>Gullit</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>A7</f>
         <v>Zidane</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="9"/>
+      <c r="E7" s="12" t="str">
+        <f>A7</f>
+        <v>Dunga</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="5">
+        <v>118</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="str">
         <f>A8</f>
         <v>Davies</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="str">
-        <f>A11</f>
-        <v>Thuram</v>
-      </c>
-      <c r="H7" s="13">
-        <f>AVERAGE(B8:B12)</f>
-        <v>117.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="5">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="9" t="str">
         <f>A9</f>
         <v>Barzagli</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="9" t="str">
         <f>A10</f>
-        <v>Marquez</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="13"/>
+        <v>Thuram</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f>A11</f>
+        <v>Laundrup</v>
+      </c>
+      <c r="H8" s="11">
+        <f>AVERAGE(B8:B12)</f>
+        <v>117.6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5">
         <v>117</v>
@@ -921,21 +945,21 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="12" t="str">
         <f>A12</f>
         <v>Courtois</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
+      <c r="A10" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -948,10 +972,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B11" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -961,7 +985,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5">
         <v>118</v>
@@ -980,36 +1004,36 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H5:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1465,7 +1489,7 @@
         <v>2501</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -1479,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -1499,7 +1523,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>111</v>
@@ -1515,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1">
         <v>113</v>
@@ -1529,7 +1553,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>111</v>
@@ -1545,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1">
         <v>113</v>
@@ -1559,7 +1583,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>112</v>
@@ -1575,12 +1599,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="13"/>
       <c r="K6" s="1">
         <f>SUM(K4:K5)</f>
         <v>2500</v>
@@ -1588,7 +1612,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>112</v>
@@ -1604,12 +1628,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="13"/>
       <c r="K7" s="1">
         <f>$B$1-K6</f>
         <v>1</v>
@@ -1617,7 +1641,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>112</v>
@@ -1633,14 +1657,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>112</v>
@@ -1656,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1677,12 +1701,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>112</v>
@@ -1698,12 +1722,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>112</v>
@@ -1719,12 +1743,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
         <v>112</v>
@@ -1740,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1761,14 +1785,14 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1">
         <v>112</v>
@@ -1784,14 +1808,14 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>112</v>
@@ -1807,12 +1831,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>112</v>
@@ -1828,12 +1852,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>112</v>
@@ -1849,12 +1873,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>112</v>
@@ -1870,12 +1894,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
         <v>112</v>
@@ -1891,12 +1915,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
         <v>113</v>
@@ -1912,14 +1936,14 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>113</v>
@@ -1935,14 +1959,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
         <v>113</v>
@@ -1958,12 +1982,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1">
         <v>113</v>
@@ -1979,12 +2003,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>112</v>
@@ -2000,12 +2024,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>112</v>
@@ -2021,12 +2045,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>113</v>
@@ -2042,12 +2066,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>113</v>
@@ -2063,14 +2087,14 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>113</v>
@@ -2086,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2109,12 +2133,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1">
         <v>113</v>
@@ -2130,12 +2154,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1">
         <v>113</v>
@@ -2151,12 +2175,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <v>113</v>
@@ -2172,12 +2196,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1">
         <v>113</v>
@@ -2193,12 +2217,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>113</v>
@@ -2214,14 +2238,14 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
         <v>113</v>
@@ -2237,14 +2261,14 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1">
         <v>113</v>
@@ -2260,12 +2284,12 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1">
         <v>113</v>
@@ -2281,12 +2305,12 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
         <v>113</v>
@@ -2302,12 +2326,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1">
         <v>113</v>
@@ -2323,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
@@ -2349,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441AD954-2C56-4E26-A382-C27DBABE32ED}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2364,10 +2388,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="4">
-        <v>2176</v>
+        <v>1608</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2381,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>26</v>
@@ -2401,10 +2425,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
@@ -2417,24 +2441,24 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="4">
-        <v>118</v>
-      </c>
-      <c r="K4" s="4">
+        <v>38</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="8">
+        <v>113</v>
+      </c>
+      <c r="K4" s="8">
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="4">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="B5" s="8">
+        <v>112</v>
       </c>
       <c r="C5" s="4">
         <v>500</v>
@@ -2447,24 +2471,23 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="10">
-        <v>118</v>
-      </c>
-      <c r="K5" s="10">
+        <v>38</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="8">
+        <f>SUM(K4:K4)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="4">
-        <v>117</v>
+        <v>85</v>
+      </c>
+      <c r="B6" s="8">
+        <v>112</v>
       </c>
       <c r="C6" s="4">
         <v>650</v>
@@ -2477,23 +2500,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="4">
-        <f>SUM(K4:K5)</f>
-        <v>3000</v>
+        <f>$B$1-K5</f>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="4">
-        <v>117</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="8">
+        <v>112</v>
       </c>
       <c r="C7" s="4">
         <v>650</v>
@@ -2506,23 +2529,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="4">
-        <f>$B$1-K6</f>
-        <v>-824</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="4">
-        <v>117</v>
+        <v>93</v>
+      </c>
+      <c r="B8" s="8">
+        <v>112</v>
       </c>
       <c r="C8" s="4">
         <v>650</v>
@@ -2535,104 +2550,104 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="4">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="B9" s="8">
+        <v>112</v>
       </c>
       <c r="C9" s="4">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="4">
-        <v>117</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>112</v>
       </c>
       <c r="C10" s="4">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4">
         <v>800</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="4">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2642,106 +2657,106 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="4">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="B14" s="8">
+        <v>113</v>
       </c>
       <c r="C14" s="4">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="4">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="B15" s="8">
+        <v>112</v>
       </c>
       <c r="C15" s="4">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="4">
-        <v>118</v>
+        <v>99</v>
+      </c>
+      <c r="B16" s="8">
+        <v>113</v>
       </c>
       <c r="C16" s="4">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="4">
-        <v>118</v>
+        <v>102</v>
+      </c>
+      <c r="B17" s="8">
+        <v>112</v>
       </c>
       <c r="C17" s="4">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="4">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="B18" s="8">
+        <v>113</v>
       </c>
       <c r="C18" s="4">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2751,40 +2766,64 @@
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="4">
-        <v>118</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="8">
+        <v>113</v>
       </c>
       <c r="C19" s="4">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8">
+        <v>113</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
       <c r="E20" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="8">
+        <v>113</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1250</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
       <c r="E21" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2796,44 +2835,104 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="8">
+        <v>113</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1250</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
       <c r="E22" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="8">
+        <v>113</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1250</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
       <c r="E23" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4">
+        <v>113</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1250</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
       <c r="E24" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="4">
+        <v>113</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
       <c r="E25" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="4">
+        <v>113</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
       <c r="E26" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2843,12 +2942,24 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4">
+        <v>113</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
       <c r="E27" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -2857,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2868,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2879,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -2888,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -2897,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.4">
@@ -2906,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.4">
@@ -2915,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.4">
@@ -2924,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2935,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2946,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.4">
@@ -2955,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.4">
@@ -2964,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.4">
@@ -2973,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.4">
@@ -2988,7 +3099,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/FCM.xlsx
+++ b/FCM.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fileBimo\backupProgram\ptsui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C67F4F0-FB7D-4E42-A78F-10372FD9BA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF9875-DCA3-47EF-8473-81DAE09C713A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Lineup" sheetId="3" r:id="rId1"/>
     <sheet name="Ragnarok After Day Break" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="2nd Anniversary" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Footyverse" sheetId="5" r:id="rId4"/>
+    <sheet name="Glourious Eras" sheetId="6" r:id="rId4"/>
+    <sheet name="Footyverse" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2nd Anniversary'!$A$3:$F$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Footyverse!$A$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Footyverse!$A$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Glourious Eras'!$A$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ragnarok After Day Break'!$A$3:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="125">
   <si>
     <t>Price</t>
   </si>
@@ -366,6 +368,54 @@
   </si>
   <si>
     <t>Laundrup</t>
+  </si>
+  <si>
+    <t>Riise</t>
+  </si>
+  <si>
+    <t>Xabi Alonso</t>
+  </si>
+  <si>
+    <t>Carragher</t>
+  </si>
+  <si>
+    <t>Gerrard</t>
+  </si>
+  <si>
+    <t>Mascherano</t>
+  </si>
+  <si>
+    <t>Dudek</t>
+  </si>
+  <si>
+    <t>Kuyt</t>
+  </si>
+  <si>
+    <t>Crouch</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Luis Figo</t>
+  </si>
+  <si>
+    <t>Casillas</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Vini Jr</t>
+  </si>
+  <si>
+    <t>Hiero</t>
+  </si>
+  <si>
+    <t>Morientes</t>
+  </si>
+  <si>
+    <t>Ribery</t>
   </si>
 </sst>
 </file>
@@ -408,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,6 +488,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,6 +500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE8956-4EAA-4721-929B-3043E18557CC}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -780,12 +834,12 @@
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -852,13 +906,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="12" t="str">
+      <c r="E5" s="13" t="str">
         <f>A4</f>
         <v>Musiala</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <f>AVERAGE(B5:B7)</f>
         <v>117.33333333333333</v>
       </c>
@@ -883,7 +937,7 @@
         <v>Zidane</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -896,13 +950,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="12" t="str">
+      <c r="E7" s="13" t="str">
         <f>A7</f>
         <v>Dunga</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
@@ -930,7 +984,7 @@
         <f>A11</f>
         <v>Laundrup</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <f>AVERAGE(B8:B12)</f>
         <v>117.6</v>
       </c>
@@ -946,13 +1000,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="12" t="str">
+      <c r="E9" s="13" t="str">
         <f>A12</f>
         <v>Courtois</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
@@ -1601,10 +1655,10 @@
       <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="1">
         <f>SUM(K4:K5)</f>
         <v>2500</v>
@@ -1630,10 +1684,10 @@
       <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="1">
         <f>$B$1-K6</f>
         <v>1</v>
@@ -2370,6 +2424,681 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E26B68B-FBAB-448E-B42F-B4005CB25506}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="6" width="18.6640625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="11"/>
+    <col min="9" max="11" width="18.6640625" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11">
+        <v>2608</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="11">
+        <v>115</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="b">
+        <f t="shared" ref="E4:E40" si="0">C4&lt;=$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="11">
+        <v>115</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="11">
+        <v>115</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="11">
+        <f>SUM(K4:K4)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="11">
+        <v>115</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="11">
+        <f>$B$1-K5</f>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="11">
+        <v>115</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="11">
+        <v>114</v>
+      </c>
+      <c r="C8" s="11">
+        <v>650</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="11">
+        <v>114</v>
+      </c>
+      <c r="C9" s="11">
+        <v>650</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="11">
+        <v>114</v>
+      </c>
+      <c r="C10" s="11">
+        <v>500</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="11">
+        <v>114</v>
+      </c>
+      <c r="C11" s="11">
+        <v>500</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="11">
+        <v>115</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="11">
+        <v>115</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1250</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="11">
+        <v>115</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="11">
+        <v>115</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="11">
+        <v>115</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="11">
+        <v>114</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="11">
+        <v>114</v>
+      </c>
+      <c r="C18" s="11">
+        <v>650</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="11">
+        <v>114</v>
+      </c>
+      <c r="C19" s="11">
+        <v>650</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="11">
+        <v>114</v>
+      </c>
+      <c r="C20" s="11">
+        <v>500</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="11">
+        <v>115</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="11">
+        <v>115</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1250</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E23" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E24" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E25" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E26" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E27" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E28" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E29" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E30" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E31" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E32" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E33" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E34" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E35" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E36" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E37" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E38" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E39" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E40" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F3" xr:uid="{41B923F2-3CC2-4CF6-9567-A62D0C246E44}">
+    <sortState ref="A4:F40">
+      <sortCondition ref="C3"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441AD954-2C56-4E26-A382-C27DBABE32ED}">
   <dimension ref="A1:K42"/>
   <sheetViews>
@@ -2473,10 +3202,10 @@
       <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="8">
         <f>SUM(K4:K4)</f>
         <v>1500</v>
@@ -2502,10 +3231,10 @@
       <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="4">
         <f>$B$1-K5</f>
         <v>108</v>

--- a/FCM.xlsx
+++ b/FCM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fileBimo\backupProgram\ptsui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAF9875-DCA3-47EF-8473-81DAE09C713A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C46F7-EA51-4413-915D-D22962D4AB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Lineup" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Remaining shards</t>
   </si>
   <si>
-    <t>Barzagli</t>
-  </si>
-  <si>
     <t>A. Cole</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Eze</t>
   </si>
   <si>
-    <t>Dembele</t>
-  </si>
-  <si>
     <t>1-1-1-1</t>
   </si>
   <si>
@@ -328,9 +322,6 @@
     <t>Rodrygo</t>
   </si>
   <si>
-    <t>Dunga</t>
-  </si>
-  <si>
     <t>Hazard</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>3-2-3-1</t>
   </si>
   <si>
-    <t>Laundrup</t>
-  </si>
-  <si>
     <t>Riise</t>
   </si>
   <si>
@@ -416,6 +404,36 @@
   </si>
   <si>
     <t>Ribery</t>
+  </si>
+  <si>
+    <t>Lizarazu</t>
+  </si>
+  <si>
+    <t>Kahn</t>
+  </si>
+  <si>
+    <t>Schweinsteiger</t>
+  </si>
+  <si>
+    <t>Pizarro</t>
+  </si>
+  <si>
+    <t>Ze Roberto</t>
+  </si>
+  <si>
+    <t>Kimmich</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Totti</t>
+  </si>
+  <si>
+    <t>Sneijder</t>
+  </si>
+  <si>
+    <t>Chiellini</t>
   </si>
 </sst>
 </file>
@@ -470,9 +488,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,6 +506,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,7 +519,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE8956-4EAA-4721-929B-3043E18557CC}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -834,21 +854,22 @@
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>118</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -856,180 +877,180 @@
       </c>
       <c r="F2" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>117.54545454545455</v>
+        <v>118.81818181818181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5">
-        <v>118</v>
+        <v>128</v>
+      </c>
+      <c r="B3" s="3">
+        <v>119</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <v>117</v>
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3">
+        <v>120</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="str">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="str">
         <f>A2</f>
-        <v>Dembele</v>
-      </c>
-      <c r="F4" s="9" t="str">
+        <v>Cryuff</v>
+      </c>
+      <c r="F4" s="8" t="str">
         <f>A3</f>
-        <v>Cryuff</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>Totti</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="3">
-        <f>AVERAGE(B2:B4)</f>
-        <v>117.66666666666667</v>
+        <f>AVERAGE(B2:B12)</f>
+        <v>118.81818181818181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="5">
-        <v>118</v>
+      <c r="A5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="3">
+        <v>119</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="str">
+      <c r="D5" s="8"/>
+      <c r="E5" s="14" t="str">
         <f>A4</f>
-        <v>Musiala</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12">
-        <f>AVERAGE(B5:B7)</f>
-        <v>117.33333333333333</v>
+        <v>Sneijder</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="13">
+        <f>AVERAGE(B2:B12)</f>
+        <v>118.81818181818181</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>118</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="str">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="str">
         <f>A5</f>
-        <v>Gullit</v>
-      </c>
-      <c r="F6" s="9" t="str">
+        <v>Ze Roberto</v>
+      </c>
+      <c r="F6" s="8" t="str">
         <f>A6</f>
         <v>Zidane</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="5">
-        <v>116</v>
+      <c r="A7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3">
+        <v>119</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13" t="str">
+      <c r="D7" s="8"/>
+      <c r="E7" s="14" t="str">
         <f>A7</f>
-        <v>Dunga</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
+        <v>Mascherano</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="5">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="B8" s="3">
+        <v>120</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="8" t="str">
         <f>A8</f>
-        <v>Davies</v>
-      </c>
-      <c r="E8" s="9" t="str">
+        <v>Riise</v>
+      </c>
+      <c r="E8" s="8" t="str">
         <f>A9</f>
-        <v>Barzagli</v>
-      </c>
-      <c r="F8" s="9" t="str">
+        <v>Chiellini</v>
+      </c>
+      <c r="F8" s="8" t="str">
         <f>A10</f>
+        <v>Lucio</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f>A11</f>
         <v>Thuram</v>
       </c>
-      <c r="G8" s="9" t="str">
-        <f>A11</f>
-        <v>Laundrup</v>
-      </c>
-      <c r="H8" s="12">
-        <f>AVERAGE(B8:B12)</f>
-        <v>117.6</v>
+      <c r="H8" s="13">
+        <f>AVERAGE(B2:B12)</f>
+        <v>118.81818181818181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="5">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="B9" s="3">
+        <v>118</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13" t="str">
+      <c r="D9" s="8"/>
+      <c r="E9" s="14" t="str">
         <f>A12</f>
         <v>Courtois</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="5">
-        <v>118</v>
+      <c r="A10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3">
+        <v>120</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="5">
-        <v>117</v>
+      <c r="A11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3">
+        <v>118</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1039,9 +1060,9 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="5">
+        <v>68</v>
+      </c>
+      <c r="B12" s="3">
         <v>118</v>
       </c>
       <c r="C12" s="1">
@@ -1058,26 +1079,26 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1">
         <v>113</v>
@@ -1637,7 +1658,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1">
         <v>112</v>
@@ -1655,10 +1676,10 @@
       <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="1">
         <f>SUM(K4:K5)</f>
         <v>2500</v>
@@ -1684,10 +1705,10 @@
       <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="1">
         <f>$B$1-K6</f>
         <v>1</v>
@@ -1695,7 +1716,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1">
         <v>112</v>
@@ -1890,7 +1911,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
         <v>112</v>
@@ -2041,7 +2062,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <v>113</v>
@@ -2062,7 +2083,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1">
         <v>112</v>
@@ -2213,7 +2234,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>113</v>
@@ -2234,7 +2255,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1">
         <v>113</v>
@@ -2255,7 +2276,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1">
         <v>113</v>
@@ -2427,659 +2448,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E26B68B-FBAB-448E-B42F-B4005CB25506}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="18.6640625" style="11" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="11" width="18.6640625" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="6" width="18.6640625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="10"/>
+    <col min="9" max="11" width="18.6640625" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11">
-        <v>2608</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="B1" s="10">
+        <v>3150</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
+        <v>114</v>
+      </c>
+      <c r="C4" s="10">
+        <v>500</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <f t="shared" ref="E4:E40" si="0">C4&lt;=$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="10">
         <v>115</v>
       </c>
-      <c r="C4" s="11">
+      <c r="K4" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="10">
+        <v>114</v>
+      </c>
+      <c r="C5" s="10">
+        <v>500</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="11">
+        <v>115</v>
+      </c>
+      <c r="K5" s="11">
         <v>1000</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="b">
-        <f t="shared" ref="E4:E40" si="0">C4&lt;=$B$1</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="11">
-        <v>115</v>
-      </c>
-      <c r="K4" s="11">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="10">
+        <v>114</v>
+      </c>
+      <c r="C6" s="10">
+        <v>500</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="11">
+        <v>114</v>
+      </c>
+      <c r="K6" s="11">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="11">
-        <v>115</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="B7" s="10">
+        <v>114</v>
+      </c>
+      <c r="C7" s="10">
+        <v>650</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="11">
-        <f>SUM(K4:K4)</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="10">
+        <f>SUM(K4:K6)</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="11">
-        <v>115</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="B8" s="10">
+        <v>114</v>
+      </c>
+      <c r="C8" s="10">
+        <v>650</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11">
-        <f>$B$1-K5</f>
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="11">
-        <v>115</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="J8" s="12"/>
+      <c r="K8" s="10">
+        <f>$B$1-K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="10">
         <v>114</v>
       </c>
-      <c r="B8" s="11">
+      <c r="C9" s="10">
+        <v>650</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="10">
         <v>114</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C10" s="10">
         <v>650</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="10">
         <v>114</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C11" s="10">
         <v>650</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="10">
         <v>114</v>
       </c>
-      <c r="C10" s="11">
-        <v>500</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="C12" s="10">
+        <v>650</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="10">
         <v>114</v>
       </c>
-      <c r="C11" s="11">
-        <v>500</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="11">
-        <v>115</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="11">
-        <v>115</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1250</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="C13" s="10">
+        <v>650</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="11">
-        <v>115</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="A14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="10">
+        <v>114</v>
+      </c>
+      <c r="C14" s="10">
+        <v>800</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="10">
         <v>115</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>1000</v>
       </c>
-      <c r="D15" s="11">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="A16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="10">
         <v>115</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>1000</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="10">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="10">
+        <v>115</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="10">
+        <v>115</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E16" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="11">
-        <v>114</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="E19" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="10">
+        <v>115</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="10">
         <v>2</v>
       </c>
-      <c r="E17" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="11">
-        <v>114</v>
-      </c>
-      <c r="C18" s="11">
-        <v>650</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="E20" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="10">
+        <v>115</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="11">
-        <v>114</v>
-      </c>
-      <c r="C19" s="11">
-        <v>650</v>
-      </c>
-      <c r="D19" s="11">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="11">
-        <v>114</v>
-      </c>
-      <c r="C20" s="11">
-        <v>500</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="11">
-        <v>115</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1500</v>
-      </c>
-      <c r="D21" s="11">
-        <v>3</v>
-      </c>
-      <c r="E21" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>40</v>
+      <c r="E21" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="11">
+      <c r="A22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="10">
         <v>115</v>
       </c>
-      <c r="C22" s="11">
-        <v>1250</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E23" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="A23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="10">
+        <v>115</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E24" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="A24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="10">
+        <v>114</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E25" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="A25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="10">
+        <v>115</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1250</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E26" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="A26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10">
+        <v>115</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1250</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="10">
+        <v>115</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1250</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3</v>
+      </c>
+      <c r="E27" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10">
+        <v>115</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E27" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E28" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E29" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="A29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="10">
+        <v>115</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E30" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E31" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E32" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="E32" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E33" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E34" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="11" t="s">
+      <c r="E34" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E35" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E36" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E37" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E38" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="11" t="s">
+      <c r="E38" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E39" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E40" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E40" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3154,7 +3273,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4">
         <v>112</v>
@@ -3172,21 +3291,21 @@
       <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="7">
         <v>113</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="8">
+        <v>90</v>
+      </c>
+      <c r="B5" s="7">
         <v>112</v>
       </c>
       <c r="C5" s="4">
@@ -3202,20 +3321,20 @@
       <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="8">
+      <c r="J5" s="15"/>
+      <c r="K5" s="7">
         <f>SUM(K4:K4)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="8">
+        <v>83</v>
+      </c>
+      <c r="B6" s="7">
         <v>112</v>
       </c>
       <c r="C6" s="4">
@@ -3231,10 +3350,10 @@
       <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="4">
         <f>$B$1-K5</f>
         <v>108</v>
@@ -3242,9 +3361,9 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="8">
+        <v>89</v>
+      </c>
+      <c r="B7" s="7">
         <v>112</v>
       </c>
       <c r="C7" s="4">
@@ -3263,9 +3382,9 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="8">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7">
         <v>112</v>
       </c>
       <c r="C8" s="4">
@@ -3286,9 +3405,9 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="8">
+        <v>97</v>
+      </c>
+      <c r="B9" s="7">
         <v>112</v>
       </c>
       <c r="C9" s="4">
@@ -3309,7 +3428,7 @@
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>112</v>
       </c>
       <c r="C10" s="4">
@@ -3328,7 +3447,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4">
         <v>112</v>
@@ -3349,7 +3468,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4">
         <v>112</v>
@@ -3370,7 +3489,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4">
         <v>112</v>
@@ -3391,9 +3510,9 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="8">
+        <v>87</v>
+      </c>
+      <c r="B14" s="7">
         <v>113</v>
       </c>
       <c r="C14" s="4">
@@ -3414,9 +3533,9 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="8">
+        <v>92</v>
+      </c>
+      <c r="B15" s="7">
         <v>112</v>
       </c>
       <c r="C15" s="4">
@@ -3437,9 +3556,9 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="8">
+        <v>96</v>
+      </c>
+      <c r="B16" s="7">
         <v>113</v>
       </c>
       <c r="C16" s="4">
@@ -3458,9 +3577,9 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="8">
+        <v>99</v>
+      </c>
+      <c r="B17" s="7">
         <v>112</v>
       </c>
       <c r="C17" s="4">
@@ -3479,9 +3598,9 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="8">
+        <v>80</v>
+      </c>
+      <c r="B18" s="7">
         <v>113</v>
       </c>
       <c r="C18" s="4">
@@ -3500,9 +3619,9 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="8">
+        <v>77</v>
+      </c>
+      <c r="B19" s="7">
         <v>113</v>
       </c>
       <c r="C19" s="4">
@@ -3521,9 +3640,9 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="8">
+        <v>93</v>
+      </c>
+      <c r="B20" s="7">
         <v>113</v>
       </c>
       <c r="C20" s="4">
@@ -3542,9 +3661,9 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="8">
+        <v>79</v>
+      </c>
+      <c r="B21" s="7">
         <v>113</v>
       </c>
       <c r="C21" s="4">
@@ -3565,9 +3684,9 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="8">
+        <v>86</v>
+      </c>
+      <c r="B22" s="7">
         <v>113</v>
       </c>
       <c r="C22" s="4">
@@ -3588,9 +3707,9 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="8">
+        <v>88</v>
+      </c>
+      <c r="B23" s="7">
         <v>113</v>
       </c>
       <c r="C23" s="4">
@@ -3609,7 +3728,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="4">
         <v>113</v>
@@ -3630,7 +3749,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4">
         <v>113</v>
@@ -3651,7 +3770,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4">
         <v>113</v>
@@ -3672,7 +3791,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4">
         <v>113</v>

--- a/FCM.xlsx
+++ b/FCM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fileBimo\backupProgram\ptsui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C46F7-EA51-4413-915D-D22962D4AB51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289EDB67-4D62-429C-9FA6-79DBB715B450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E80D17E1-FB09-4A93-9644-C4BD38ECBE12}"/>
   </bookViews>
   <sheets>
     <sheet name="Lineup" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="133">
   <si>
     <t>Price</t>
   </si>
@@ -352,12 +352,6 @@
     <t>3-1-3-1</t>
   </si>
   <si>
-    <t>1-1-3-1</t>
-  </si>
-  <si>
-    <t>3-2-3-1</t>
-  </si>
-  <si>
     <t>Riise</t>
   </si>
   <si>
@@ -434,6 +428,18 @@
   </si>
   <si>
     <t>Chiellini</t>
+  </si>
+  <si>
+    <t>2-2-2-1</t>
+  </si>
+  <si>
+    <t>2-1-2-1</t>
+  </si>
+  <si>
+    <t>Buffon</t>
+  </si>
+  <si>
+    <t>Zambrotta</t>
   </si>
 </sst>
 </file>
@@ -835,9 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE8956-4EAA-4721-929B-3043E18557CC}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -877,12 +881,12 @@
       </c>
       <c r="F2" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>118.81818181818181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3">
         <v>119</v>
@@ -893,7 +897,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3">
         <v>120</v>
@@ -913,15 +917,15 @@
       <c r="G4" s="8"/>
       <c r="H4" s="3">
         <f>AVERAGE(B2:B12)</f>
-        <v>118.81818181818181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -935,7 +939,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="13">
         <f>AVERAGE(B2:B12)</f>
-        <v>118.81818181818181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -951,7 +955,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="str">
         <f>A5</f>
-        <v>Ze Roberto</v>
+        <v>Gullit</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>A6</f>
@@ -962,7 +966,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3">
         <v>119</v>
@@ -981,17 +985,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>A8</f>
-        <v>Riise</v>
+        <v>Davies</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>A9</f>
@@ -999,23 +1003,23 @@
       </c>
       <c r="F8" s="8" t="str">
         <f>A10</f>
-        <v>Lucio</v>
+        <v>Hiero</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>A11</f>
-        <v>Thuram</v>
+        <v>Zambrotta</v>
       </c>
       <c r="H8" s="13">
         <f>AVERAGE(B2:B12)</f>
-        <v>118.81818181818181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1023,7 +1027,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="14" t="str">
         <f>A12</f>
-        <v>Courtois</v>
+        <v>Buffon</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="8"/>
@@ -1031,10 +1035,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1047,10 +1051,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1060,10 +1064,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -1090,7 +1094,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -1098,7 +1102,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E26B68B-FBAB-448E-B42F-B4005CB25506}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2500,7 +2504,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="10">
         <v>114</v>
@@ -2530,7 +2534,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="10">
         <v>114</v>
@@ -2549,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" s="11">
         <v>115</v>
@@ -2560,7 +2564,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10">
         <v>114</v>
@@ -2579,7 +2583,7 @@
         <v>38</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J6" s="11">
         <v>114</v>
@@ -2590,7 +2594,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10">
         <v>114</v>
@@ -2619,7 +2623,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="10">
         <v>114</v>
@@ -2648,7 +2652,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="10">
         <v>114</v>
@@ -2690,7 +2694,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="10">
         <v>114</v>
@@ -2711,7 +2715,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="10">
         <v>114</v>
@@ -2732,7 +2736,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="10">
         <v>114</v>
@@ -2753,7 +2757,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="10">
         <v>114</v>
@@ -2776,7 +2780,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="10">
         <v>115</v>
@@ -2799,7 +2803,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="10">
         <v>115</v>
@@ -2820,7 +2824,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10">
         <v>115</v>
@@ -2841,7 +2845,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="10">
         <v>115</v>
@@ -2862,7 +2866,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="10">
         <v>115</v>
@@ -2883,7 +2887,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="10">
         <v>115</v>
@@ -2904,7 +2908,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="10">
         <v>115</v>
@@ -2927,7 +2931,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="10">
         <v>115</v>
@@ -2950,7 +2954,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10">
         <v>115</v>
@@ -2971,7 +2975,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="10">
         <v>114</v>
@@ -3013,7 +3017,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="10">
         <v>115</v>
@@ -3034,7 +3038,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="10">
         <v>115</v>
@@ -3078,7 +3082,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" s="10">
         <v>115</v>
